--- a/exportaciones/productos_exportados.xlsx
+++ b/exportaciones/productos_exportados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Producto 1</t>
+    <t>Producto 12</t>
   </si>
   <si>
     <t>Producto 2</t>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>paquete de 20 pastillas</t>
+  </si>
+  <si>
+    <t>prueba 54</t>
+  </si>
+  <si>
+    <t>promo 2x1</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,13 +135,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>35.0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>200.0</v>
+        <v>627.0</v>
       </c>
     </row>
     <row r="3">
@@ -146,13 +152,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>115.0</v>
+        <v>90.0</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>250.0</v>
+        <v>2255.07</v>
       </c>
     </row>
     <row r="4">
@@ -163,13 +169,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>433.0</v>
+        <v>408.0</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="5">
@@ -180,13 +186,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>961.0</v>
+        <v>948.0</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>150.0</v>
+        <v>1879.22</v>
       </c>
     </row>
     <row r="6">
@@ -203,7 +209,24 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>250.0</v>
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
